--- a/Data/OrangeHRM_Data.xlsx
+++ b/Data/OrangeHRM_Data.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="6585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="AssignLeavePage" sheetId="2" r:id="rId2"/>
-    <sheet name="AddEmployeePage" sheetId="3" r:id="rId3"/>
+    <sheet name="AddEmployeePage" sheetId="3" r:id="rId2"/>
+    <sheet name="AssignLeavePage" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N19"/>
 </workbook>
 </file>
 
@@ -28,9 +27,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://opensource-demo.orangehrmlive.com/</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -65,24 +61,19 @@
   </si>
   <si>
     <t>LName</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,17 +102,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,12 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -448,14 +437,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -468,53 +457,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -522,21 +467,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/OrangeHRM_Data.xlsx
+++ b/Data/OrangeHRM_Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4425"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12030" windowHeight="7035" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AddEmployeePage" sheetId="3" r:id="rId2"/>
     <sheet name="AssignLeavePage" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:J22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Paternity US</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
     <t>fromdate</t>
   </si>
   <si>
@@ -57,20 +55,29 @@
     <t>Lname</t>
   </si>
   <si>
-    <t>FName</t>
-  </si>
-  <si>
-    <t>LName</t>
-  </si>
-  <si>
     <t>https://opensource-demo.orangehrmlive.com</t>
+  </si>
+  <si>
+    <t>2018-12-22</t>
+  </si>
+  <si>
+    <t>2018-12-21</t>
+  </si>
+  <si>
+    <t>FName2</t>
+  </si>
+  <si>
+    <t>LName2</t>
+  </si>
+  <si>
+    <t>FName2 LName2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,10 +208,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +242,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,21 +417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -436,9 +442,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -456,29 +462,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -487,22 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -510,24 +515,24 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
